--- a/leiji/5.1-5.24_leiji/leiji_baobiao.xlsx
+++ b/leiji/5.1-5.24_leiji/leiji_baobiao.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandler/Documents/Projects/sndataclean/524_leiji/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandler/Documents/Projects/sndataclean/leiji/5.1-5.24_leiji/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,45 +235,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -583,7 +593,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -634,614 +644,614 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>145769.90608823</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>2.690697979371498E-2</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>2530845</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>65096</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>2.5721053640187369E-2</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>0.44656679658282428</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>0.95592496212433986</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>65.031006279943057</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>455906.07598576171</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>7.3356547642388081E-2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>8106617</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>672935</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>8.3010582589506818E-2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>1.476038674292677</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>1.131604270612379</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>250323.8905242419</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>5.539156389820863E-2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>5079230</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>224739</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>4.4246667309808772E-2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>0.89779285360793726</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>0.79879794315104569</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>85.819488942518063</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>851999.87259823375</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>5.2750009317181608E-2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>15716692</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>962770</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>6.1257801578092887E-2</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>1.130011906062808</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>1.161285132856652</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>32323.604710701489</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>5.0167749839526467E-2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>1101575</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>30143</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>2.7363547647686271E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0.9325383189709795</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>0.54544100014880303</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>77.769939144210895</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>18784.41383366019</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>6.2116013942373552E-2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>763148</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>19796</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>2.5939922531409369E-2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>1.05385242123058</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>0.41760442895570271</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>76.704177158228106</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>14334.852727028479</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>4.7224284875151012E-2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>826558</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>16910</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>2.0458334442350078E-2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>1.1796423947988011</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>0.4332163948366124</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>77.328655793464492</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>29704.986593734731</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>3.9161422584543318E-2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>1960104</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>63774</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>3.253602870051793E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>2.1469122633252078</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>0.83081835523920977</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>93.232734209568392</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>95147.857865124883</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>4.7365660585177202E-2</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>4651385</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>130623</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>2.808260335362478E-2</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>1.3728422576277259</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>0.59288951123407452</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>83.715580449362989</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>33073.877888624433</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>2.9795537285562671E-2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>1104219</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>23416</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>2.1205938314772702E-2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>0.7079907617380965</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>0.71171525156715232</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>70.948055766971876</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>5345.9392619790424</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>2.0548177268901579E-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>364898</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>3691</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>1.0115155468103409E-2</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>0.69043059023338182</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>0.49226533992443661</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>61.116449010980382</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>39171.887212756839</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>5.0037528968366413E-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>522951</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>30257</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>5.785819321504309E-2</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>0.7724161931658583</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>1.156295972401453</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>86.344971589951498</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>77591.704363360317</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>3.603813874080275E-2</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>1992068</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>57364</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>2.8796205752012478E-2</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>0.73930583779118442</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>0.79904808511681324</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>76.3202736721436</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>61195.214026747519</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>6.5815728724434558E-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>647771</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>54620</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>8.4319921700724484E-2</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>0.8925534597546535</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>1.28115153223883</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>93.55320758527921</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>61195.214026747519</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>6.5815728724434558E-2</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>647771</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>54620</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>8.4319921700724484E-2</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>0.8925534597546535</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>1.28115153223883</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>93.55320758527921</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>6427.2276764843373</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>2.690697979371498E-2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>189077</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>398</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>2.104962528493683E-3</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>6.1924054978818498E-2</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>7.8231096341231376E-2</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>6.8446871523783646</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>6427.2276764843373</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>2.690697979371498E-2</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>189077</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>398</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>2.104962528493683E-3</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>6.1924054978818498E-2</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>7.8231096341231376E-2</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <v>6.8446871523783646</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:10" s="22" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="C19" s="20">
+        <v>0</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="20">
         <v>343334</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="20">
         <v>5896</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="21">
         <v>1.717278218877245E-2</v>
       </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
+      <c r="H19" s="21">
+        <v>0</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
         <v>5474597</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>481938</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>8.8031685254640668E-2</v>
       </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="11">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
         <v>5817931</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>487834</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>8.3850083474692291E-2</v>
       </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1252,39 +1262,39 @@
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>1092361.8765299511</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>5.0849731246170538E-2</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>29014924</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <v>1693609</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>5.8370271795300931E-2</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <v>1.5504102041532239</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="16">
         <v>1.147897350975611</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="17">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
